--- a/fits/h7/summary_h7.xlsx
+++ b/fits/h7/summary_h7.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="405" windowWidth="18480" windowHeight="8640"/>
@@ -19,7 +19,7 @@
     <definedName name="h7_F_s2g" localSheetId="0">Sheet1!$I$2:$I$50</definedName>
     <definedName name="h7_F_sdf" localSheetId="0">Sheet1!$A$2:$E$50</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -190,27 +190,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="h7_F_s1g" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="h7_F_mdf" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="h7_F_sdf" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="h7_F_m2g" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="h7_F_s2g" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="h7_F_m1g" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="h7_F_s1g" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="h7_F_mdf" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="h7_F_sdf" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2104,6 +2104,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
